--- a/Макеты/03/ВА_ИмпортExcel+Mercury.xlsx
+++ b/Макеты/03/ВА_ИмпортExcel+Mercury.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20404"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VA-Tests\VA-Tests-UH32-Budget\Макеты\03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63A5BE8-D6CD-4AA8-B9B5-6D27A728E5CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D28232C-DEFC-46B3-AEF8-6F05EDCF285E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="32760" windowWidth="11400" windowHeight="5895" tabRatio="180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="44">
   <si>
     <t>RUB</t>
   </si>
@@ -138,6 +138,21 @@
   </si>
   <si>
     <t>Io-002 from 1/1/2024</t>
+  </si>
+  <si>
+    <t>2900001916059</t>
+  </si>
+  <si>
+    <t>4601546106674</t>
+  </si>
+  <si>
+    <t>2900001871389</t>
+  </si>
+  <si>
+    <t>2900001871419</t>
+  </si>
+  <si>
+    <t>2900001970198</t>
   </si>
 </sst>
 </file>
@@ -153,16 +168,22 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="4">
@@ -238,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -297,6 +318,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -683,19 +708,19 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A2:N30"/>
+  <dimension ref="A2:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="3" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="8" width="35.33203125" style="1" customWidth="1"/>
-    <col min="9" max="14" width="16.1640625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="9" width="35.33203125" style="1" customWidth="1"/>
+    <col min="10" max="15" width="16.1640625" style="1" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -712,8 +737,9 @@
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
-    </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O2"/>
+    </row>
+    <row r="4" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
       <c r="B4" s="18" t="s">
         <v>19</v>
@@ -728,28 +754,31 @@
         <v>22</v>
       </c>
       <c r="F4" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="H4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="I4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="J4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="15"/>
+      <c r="L4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="15"/>
+      <c r="N4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="15"/>
-    </row>
-    <row r="5" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O4" s="15"/>
+    </row>
+    <row r="5" spans="1:15" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -758,26 +787,27 @@
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="19"/>
+      <c r="J5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
@@ -788,24 +818,25 @@
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
-      <c r="I6" s="5">
+      <c r="I6"/>
+      <c r="J6" s="5">
         <v>0</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="6">
+      <c r="K6" s="5"/>
+      <c r="L6" s="6">
         <v>4</v>
       </c>
-      <c r="L6" s="7">
+      <c r="M6" s="7">
         <v>600000</v>
       </c>
-      <c r="M6" s="6">
+      <c r="N6" s="6">
         <v>5</v>
       </c>
-      <c r="N6" s="7">
+      <c r="O6" s="7">
         <v>700000</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -816,18 +847,19 @@
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
-      <c r="I7" s="5">
+      <c r="I7"/>
+      <c r="J7" s="5">
         <v>2</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5">
+      <c r="K7" s="5"/>
+      <c r="L7" s="5">
         <v>999</v>
       </c>
-      <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
-    </row>
-    <row r="8" spans="1:14" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="1:15" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>14</v>
       </c>
@@ -838,24 +870,25 @@
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8"/>
-      <c r="I8" s="6">
+      <c r="I8"/>
+      <c r="J8" s="6">
         <v>2</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="6">
+      <c r="K8" s="5"/>
+      <c r="L8" s="6">
         <v>3</v>
       </c>
-      <c r="L8" s="7">
+      <c r="M8" s="7">
         <v>6633000</v>
       </c>
-      <c r="M8" s="6">
+      <c r="N8" s="6">
         <v>4</v>
       </c>
-      <c r="N8" s="7">
+      <c r="O8" s="7">
         <v>7495400</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -866,18 +899,19 @@
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9"/>
-      <c r="I9" s="5">
+      <c r="I9"/>
+      <c r="J9" s="5">
         <v>30</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5">
+      <c r="K9" s="5"/>
+      <c r="L9" s="5">
         <v>999</v>
       </c>
-      <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="1:14" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>3</v>
       </c>
@@ -888,18 +922,19 @@
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10"/>
-      <c r="I10" s="5">
+      <c r="I10"/>
+      <c r="J10" s="5">
         <v>20</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5">
+      <c r="K10" s="5"/>
+      <c r="L10" s="5">
         <v>999</v>
       </c>
-      <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
-    </row>
-    <row r="11" spans="1:14" ht="11.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="1:15" ht="11.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>15</v>
       </c>
@@ -910,18 +945,19 @@
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11"/>
-      <c r="I11" s="5">
+      <c r="I11"/>
+      <c r="J11" s="5">
         <v>10</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5">
+      <c r="K11" s="5"/>
+      <c r="L11" s="5">
         <v>999</v>
       </c>
-      <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="1:15" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12" s="10" t="s">
         <v>6</v>
@@ -932,26 +968,27 @@
       <c r="F12"/>
       <c r="G12"/>
       <c r="H12"/>
-      <c r="I12" s="6">
+      <c r="I12"/>
+      <c r="J12" s="6">
         <v>4</v>
       </c>
-      <c r="J12" s="7">
+      <c r="K12" s="7">
         <v>780000</v>
       </c>
-      <c r="K12" s="6">
+      <c r="L12" s="6">
         <v>6</v>
       </c>
-      <c r="L12" s="7">
+      <c r="M12" s="7">
         <v>858000</v>
       </c>
-      <c r="M12" s="6">
+      <c r="N12" s="6">
         <v>8</v>
       </c>
-      <c r="N12" s="7">
+      <c r="O12" s="7">
         <v>969500</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13" s="10" t="s">
         <v>7</v>
@@ -962,26 +999,27 @@
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13"/>
-      <c r="I13" s="6">
+      <c r="I13"/>
+      <c r="J13" s="6">
         <v>6</v>
       </c>
-      <c r="J13" s="7">
+      <c r="K13" s="7">
         <v>5250000</v>
       </c>
-      <c r="K13" s="6">
+      <c r="L13" s="6">
         <v>9</v>
       </c>
-      <c r="L13" s="7">
+      <c r="M13" s="7">
         <v>5775000</v>
       </c>
-      <c r="M13" s="6">
+      <c r="N13" s="6">
         <v>12</v>
       </c>
-      <c r="N13" s="7">
+      <c r="O13" s="7">
         <v>6525900</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="11.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="11.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>16</v>
       </c>
@@ -992,18 +1030,19 @@
       <c r="F14"/>
       <c r="G14"/>
       <c r="H14"/>
-      <c r="I14" s="5">
+      <c r="I14"/>
+      <c r="J14" s="5">
         <v>10</v>
       </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5">
+      <c r="K14" s="5"/>
+      <c r="L14" s="5">
         <v>999</v>
       </c>
-      <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
-    </row>
-    <row r="15" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="1:15" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A15"/>
       <c r="B15" s="10" t="s">
         <v>6</v>
@@ -1016,26 +1055,27 @@
       <c r="F15"/>
       <c r="G15"/>
       <c r="H15"/>
-      <c r="I15" s="6">
+      <c r="I15"/>
+      <c r="J15" s="6">
         <v>4</v>
       </c>
-      <c r="J15" s="7">
+      <c r="K15" s="7">
         <v>780000</v>
       </c>
-      <c r="K15" s="6">
+      <c r="L15" s="6">
         <v>6</v>
       </c>
-      <c r="L15" s="7">
+      <c r="M15" s="7">
         <v>858000</v>
       </c>
-      <c r="M15" s="6">
+      <c r="N15" s="6">
         <v>8</v>
       </c>
-      <c r="N15" s="7">
+      <c r="O15" s="7">
         <v>969500</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16" s="10" t="s">
         <v>7</v>
@@ -1048,26 +1088,27 @@
       <c r="F16"/>
       <c r="G16"/>
       <c r="H16"/>
-      <c r="I16" s="6">
+      <c r="I16"/>
+      <c r="J16" s="6">
         <v>6</v>
       </c>
-      <c r="J16" s="7">
+      <c r="K16" s="7">
         <v>5250000</v>
       </c>
-      <c r="K16" s="6">
+      <c r="L16" s="6">
         <v>9</v>
       </c>
-      <c r="L16" s="7">
+      <c r="M16" s="7">
         <v>5775000</v>
       </c>
-      <c r="M16" s="6">
+      <c r="N16" s="6">
         <v>12</v>
       </c>
-      <c r="N16" s="7">
+      <c r="O16" s="7">
         <v>6525900</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>4</v>
       </c>
@@ -1078,18 +1119,19 @@
       <c r="F17"/>
       <c r="G17"/>
       <c r="H17"/>
-      <c r="I17" s="5">
+      <c r="I17"/>
+      <c r="J17" s="5">
         <v>10</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5">
+      <c r="K17" s="5"/>
+      <c r="L17" s="5">
         <v>999</v>
       </c>
-      <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
-    </row>
-    <row r="18" spans="1:14" ht="11.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="1:15" ht="11.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>17</v>
       </c>
@@ -1100,18 +1142,19 @@
       <c r="F18"/>
       <c r="G18"/>
       <c r="H18"/>
-      <c r="I18" s="5">
+      <c r="I18"/>
+      <c r="J18" s="5">
         <v>10</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5">
+      <c r="K18" s="5"/>
+      <c r="L18" s="5">
         <v>999</v>
       </c>
-      <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
-    </row>
-    <row r="19" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="O18" s="5"/>
+    </row>
+    <row r="19" spans="1:15" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19" s="10" t="s">
         <v>6</v>
@@ -1125,33 +1168,36 @@
       <c r="E19" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>30</v>
+      <c r="F19" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H19"/>
-      <c r="I19" s="6">
+      <c r="H19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19"/>
+      <c r="J19" s="6">
         <v>2</v>
       </c>
-      <c r="J19" s="7">
+      <c r="K19" s="7">
         <v>180000</v>
       </c>
-      <c r="K19" s="6">
+      <c r="L19" s="6">
         <v>3</v>
       </c>
-      <c r="L19" s="7">
+      <c r="M19" s="7">
         <v>198000</v>
       </c>
-      <c r="M19" s="6">
+      <c r="N19" s="6">
         <v>4</v>
       </c>
-      <c r="N19" s="7">
+      <c r="O19" s="7">
         <v>223700</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20" s="10" t="s">
         <v>6</v>
@@ -1165,33 +1211,36 @@
       <c r="E20" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>30</v>
+      <c r="F20" s="20" t="s">
+        <v>40</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H20"/>
-      <c r="I20" s="6">
+      <c r="H20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20"/>
+      <c r="J20" s="6">
         <v>2</v>
       </c>
-      <c r="J20" s="7">
+      <c r="K20" s="7">
         <v>600000</v>
       </c>
-      <c r="K20" s="6">
+      <c r="L20" s="6">
         <v>3</v>
       </c>
-      <c r="L20" s="7">
+      <c r="M20" s="7">
         <v>660000</v>
       </c>
-      <c r="M20" s="6">
+      <c r="N20" s="6">
         <v>4</v>
       </c>
-      <c r="N20" s="7">
+      <c r="O20" s="7">
         <v>745800</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21" s="10" t="s">
         <v>7</v>
@@ -1205,33 +1254,36 @@
       <c r="E21" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="10" t="s">
-        <v>31</v>
+      <c r="F21" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H21"/>
-      <c r="I21" s="6">
+      <c r="H21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21"/>
+      <c r="J21" s="6">
         <v>2</v>
       </c>
-      <c r="J21" s="7">
+      <c r="K21" s="7">
         <v>1250000</v>
       </c>
-      <c r="K21" s="6">
+      <c r="L21" s="6">
         <v>3</v>
       </c>
-      <c r="L21" s="7">
+      <c r="M21" s="7">
         <v>1375000</v>
       </c>
-      <c r="M21" s="6">
+      <c r="N21" s="6">
         <v>4</v>
       </c>
-      <c r="N21" s="7">
+      <c r="O21" s="7">
         <v>1553800</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22" s="10" t="s">
         <v>7</v>
@@ -1245,33 +1297,36 @@
       <c r="E22" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="10" t="s">
-        <v>31</v>
+      <c r="F22" s="20" t="s">
+        <v>42</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H22"/>
-      <c r="I22" s="6">
+      <c r="H22" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22"/>
+      <c r="J22" s="6">
         <v>2</v>
       </c>
-      <c r="J22" s="7">
+      <c r="K22" s="7">
         <v>2050000</v>
       </c>
-      <c r="K22" s="6">
+      <c r="L22" s="6">
         <v>3</v>
       </c>
-      <c r="L22" s="7">
+      <c r="M22" s="7">
         <v>2255000</v>
       </c>
-      <c r="M22" s="6">
+      <c r="N22" s="6">
         <v>4</v>
       </c>
-      <c r="N22" s="7">
+      <c r="O22" s="7">
         <v>2548200</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23" s="10" t="s">
         <v>7</v>
@@ -1285,33 +1340,36 @@
       <c r="E23" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>31</v>
+      <c r="F23" s="20" t="s">
+        <v>43</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H23"/>
-      <c r="I23" s="6">
+      <c r="H23" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23"/>
+      <c r="J23" s="6">
         <v>2</v>
       </c>
-      <c r="J23" s="7">
+      <c r="K23" s="7">
         <v>1950000</v>
       </c>
-      <c r="K23" s="6">
+      <c r="L23" s="6">
         <v>3</v>
       </c>
-      <c r="L23" s="7">
+      <c r="M23" s="7">
         <v>2145000</v>
       </c>
-      <c r="M23" s="6">
+      <c r="N23" s="6">
         <v>4</v>
       </c>
-      <c r="N23" s="7">
+      <c r="O23" s="7">
         <v>2423900</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="11.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="11.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>5</v>
       </c>
@@ -1319,21 +1377,22 @@
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
-      <c r="F24"/>
+      <c r="F24" s="21"/>
       <c r="G24"/>
       <c r="H24"/>
-      <c r="I24" s="5">
+      <c r="I24"/>
+      <c r="J24" s="5">
         <v>10</v>
       </c>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5">
+      <c r="K24" s="5"/>
+      <c r="L24" s="5">
         <v>999</v>
       </c>
-      <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
-    </row>
-    <row r="25" spans="1:14" ht="11.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="O24" s="5"/>
+    </row>
+    <row r="25" spans="1:15" ht="11.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>18</v>
       </c>
@@ -1341,21 +1400,22 @@
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
-      <c r="F25"/>
+      <c r="F25" s="21"/>
       <c r="G25"/>
       <c r="H25"/>
-      <c r="I25" s="5">
+      <c r="I25"/>
+      <c r="J25" s="5">
         <v>10</v>
       </c>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5">
+      <c r="K25" s="5"/>
+      <c r="L25" s="5">
         <v>999</v>
       </c>
-      <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
-    </row>
-    <row r="26" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="O25" s="5"/>
+    </row>
+    <row r="26" spans="1:15" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26" s="10" t="s">
         <v>6</v>
@@ -1369,35 +1429,38 @@
       <c r="E26" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="10" t="s">
-        <v>30</v>
+      <c r="F26" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>30</v>
       </c>
       <c r="H26" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I26" s="6">
+      <c r="J26" s="6">
         <v>2</v>
       </c>
-      <c r="J26" s="7">
+      <c r="K26" s="7">
         <v>180000</v>
       </c>
-      <c r="K26" s="6">
+      <c r="L26" s="6">
         <v>3</v>
       </c>
-      <c r="L26" s="7">
+      <c r="M26" s="7">
         <v>198000</v>
       </c>
-      <c r="M26" s="6">
+      <c r="N26" s="6">
         <v>4</v>
       </c>
-      <c r="N26" s="7">
+      <c r="O26" s="7">
         <v>223700</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27" s="10" t="s">
         <v>6</v>
@@ -1411,35 +1474,38 @@
       <c r="E27" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="10" t="s">
-        <v>30</v>
+      <c r="F27" s="20" t="s">
+        <v>40</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>30</v>
       </c>
       <c r="H27" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I27" s="6">
+      <c r="J27" s="6">
         <v>2</v>
       </c>
-      <c r="J27" s="7">
+      <c r="K27" s="7">
         <v>600000</v>
       </c>
-      <c r="K27" s="6">
+      <c r="L27" s="6">
         <v>3</v>
       </c>
-      <c r="L27" s="7">
+      <c r="M27" s="7">
         <v>660000</v>
       </c>
-      <c r="M27" s="6">
+      <c r="N27" s="6">
         <v>4</v>
       </c>
-      <c r="N27" s="7">
+      <c r="O27" s="7">
         <v>745800</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28" s="10" t="s">
         <v>7</v>
@@ -1453,35 +1519,38 @@
       <c r="E28" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="10" t="s">
-        <v>31</v>
+      <c r="F28" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>31</v>
       </c>
       <c r="H28" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I28" s="6">
+      <c r="J28" s="6">
         <v>2</v>
       </c>
-      <c r="J28" s="7">
+      <c r="K28" s="7">
         <v>1250000</v>
       </c>
-      <c r="K28" s="6">
+      <c r="L28" s="6">
         <v>3</v>
       </c>
-      <c r="L28" s="7">
+      <c r="M28" s="7">
         <v>1375000</v>
       </c>
-      <c r="M28" s="6">
+      <c r="N28" s="6">
         <v>4</v>
       </c>
-      <c r="N28" s="7">
+      <c r="O28" s="7">
         <v>1553800</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29" s="10" t="s">
         <v>7</v>
@@ -1495,35 +1564,38 @@
       <c r="E29" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="10" t="s">
-        <v>31</v>
+      <c r="F29" s="20" t="s">
+        <v>42</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>31</v>
       </c>
       <c r="H29" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I29" s="6">
+      <c r="J29" s="6">
         <v>2</v>
       </c>
-      <c r="J29" s="7">
+      <c r="K29" s="7">
         <v>2050000</v>
       </c>
-      <c r="K29" s="6">
+      <c r="L29" s="6">
         <v>3</v>
       </c>
-      <c r="L29" s="7">
+      <c r="M29" s="7">
         <v>2255000</v>
       </c>
-      <c r="M29" s="6">
+      <c r="N29" s="6">
         <v>4</v>
       </c>
-      <c r="N29" s="7">
+      <c r="O29" s="7">
         <v>2548200</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30" s="10" t="s">
         <v>7</v>
@@ -1537,47 +1609,51 @@
       <c r="E30" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="10" t="s">
-        <v>31</v>
+      <c r="F30" s="20" t="s">
+        <v>43</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>31</v>
       </c>
       <c r="H30" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I30" s="6">
+      <c r="J30" s="6">
         <v>2</v>
       </c>
-      <c r="J30" s="7">
+      <c r="K30" s="7">
         <v>1950000</v>
       </c>
-      <c r="K30" s="6">
+      <c r="L30" s="6">
         <v>3</v>
       </c>
-      <c r="L30" s="7">
+      <c r="M30" s="7">
         <v>2145000</v>
       </c>
-      <c r="M30" s="6">
+      <c r="N30" s="6">
         <v>4</v>
       </c>
-      <c r="N30" s="7">
+      <c r="O30" s="7">
         <v>2423900</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="M4:N4"/>
+  <mergeCells count="12">
+    <mergeCell ref="N4:O4"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Макеты/03/ВА_ИмпортExcel+Mercury.xlsx
+++ b/Макеты/03/ВА_ИмпортExcel+Mercury.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VA-Tests\VA-Tests-UH32-Budget\Макеты\03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D28232C-DEFC-46B3-AEF8-6F05EDCF285E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7DA029-BCE3-4722-8A9C-6C8D082A374A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="32760" windowWidth="11400" windowHeight="5895" tabRatio="180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="98">
   <si>
     <t>RUB</t>
   </si>
@@ -153,13 +153,178 @@
   </si>
   <si>
     <t>2900001970198</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Булево</t>
+  </si>
+  <si>
+    <t>Строка</t>
+  </si>
+  <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t>Январь1</t>
+  </si>
+  <si>
+    <t>Мусор</t>
+  </si>
+  <si>
+    <t>Март1</t>
+  </si>
+  <si>
+    <t>Январь2</t>
+  </si>
+  <si>
+    <t>Январь3</t>
+  </si>
+  <si>
+    <t>Март2</t>
+  </si>
+  <si>
+    <t>Январь4</t>
+  </si>
+  <si>
+    <t>Январь5</t>
+  </si>
+  <si>
+    <t>Январь6</t>
+  </si>
+  <si>
+    <t>Январь7</t>
+  </si>
+  <si>
+    <t>%?№@</t>
+  </si>
+  <si>
+    <t>Март3</t>
+  </si>
+  <si>
+    <t>Январь8</t>
+  </si>
+  <si>
+    <t>Март4</t>
+  </si>
+  <si>
+    <t>Январь9</t>
+  </si>
+  <si>
+    <t>Январь10</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Март5</t>
+  </si>
+  <si>
+    <t>Январь11</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Март6</t>
+  </si>
+  <si>
+    <t>Январь12</t>
+  </si>
+  <si>
+    <t>Январь13</t>
+  </si>
+  <si>
+    <t>Январь14</t>
+  </si>
+  <si>
+    <t>Февраль7</t>
+  </si>
+  <si>
+    <t>Март7</t>
+  </si>
+  <si>
+    <t>Январь15</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>Март8</t>
+  </si>
+  <si>
+    <t>Январь16</t>
+  </si>
+  <si>
+    <t>Февраль9</t>
+  </si>
+  <si>
+    <t>Март9</t>
+  </si>
+  <si>
+    <t>Январь17</t>
+  </si>
+  <si>
+    <t>Март10</t>
+  </si>
+  <si>
+    <t>Январь18</t>
+  </si>
+  <si>
+    <t>Февраль11</t>
+  </si>
+  <si>
+    <t>Март11</t>
+  </si>
+  <si>
+    <t>Январь19</t>
+  </si>
+  <si>
+    <t>Январь20</t>
+  </si>
+  <si>
+    <t>Январь21</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Март12</t>
+  </si>
+  <si>
+    <t>Январь22</t>
+  </si>
+  <si>
+    <t>Март13</t>
+  </si>
+  <si>
+    <t>Январь23</t>
+  </si>
+  <si>
+    <t>Март14</t>
+  </si>
+  <si>
+    <t>Январь24</t>
+  </si>
+  <si>
+    <t>Март15</t>
+  </si>
+  <si>
+    <t>Январь25</t>
+  </si>
+  <si>
+    <t>Март16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -185,8 +350,17 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,12 +375,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="24"/>
-        <bgColor indexed="64"/>
+        <fgColor auto="1"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFAD9"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -255,11 +435,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -273,15 +468,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
@@ -303,9 +489,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -318,10 +505,42 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -708,19 +927,19 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A2:O30"/>
+  <dimension ref="A2:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="3" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="3" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="35.33203125" style="1" customWidth="1"/>
-    <col min="10" max="15" width="16.1640625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="24" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -732,83 +951,114 @@
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-    </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="18" t="s">
+    </row>
+    <row r="3" spans="1:24" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15" t="s">
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15" t="s">
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="O4" s="15"/>
-    </row>
-    <row r="5" spans="1:15" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="3" t="s">
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+    </row>
+    <row r="5" spans="1:24" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="O5" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="T5" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="U5" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="V5" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="W5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="X5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B6"/>
@@ -819,24 +1069,49 @@
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
-      <c r="J6" s="5">
+      <c r="J6" s="22">
+        <v>45292</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="25">
         <v>0</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="6">
+      <c r="N6" s="25"/>
+      <c r="O6" s="26">
+        <v>45323</v>
+      </c>
+      <c r="P6" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="25">
         <v>4</v>
       </c>
-      <c r="M6" s="7">
+      <c r="S6" s="25">
         <v>600000</v>
       </c>
-      <c r="N6" s="6">
+      <c r="T6" s="22">
+        <v>45352</v>
+      </c>
+      <c r="U6" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="V6" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="W6" s="25">
         <v>5</v>
       </c>
-      <c r="O6" s="7">
+      <c r="X6" s="25">
         <v>700000</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -848,19 +1123,38 @@
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
-      <c r="J7" s="5">
+      <c r="J7" s="22">
+        <v>45293</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="25">
         <v>2</v>
       </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5">
+      <c r="N7" s="25"/>
+      <c r="O7" s="26">
+        <v>45657</v>
+      </c>
+      <c r="P7" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="25">
         <v>999</v>
       </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-    </row>
-    <row r="8" spans="1:15" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+    </row>
+    <row r="8" spans="1:24" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B8"/>
@@ -871,24 +1165,49 @@
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
-      <c r="J8" s="6">
+      <c r="J8" s="22">
+        <v>45294</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="25">
         <v>2</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="6">
+      <c r="N8" s="25"/>
+      <c r="O8" s="26">
+        <v>45324</v>
+      </c>
+      <c r="P8" s="25">
+        <v>12345</v>
+      </c>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="25">
         <v>3</v>
       </c>
-      <c r="M8" s="7">
+      <c r="S8" s="25">
         <v>6633000</v>
       </c>
-      <c r="N8" s="6">
+      <c r="T8" s="22">
+        <v>45353</v>
+      </c>
+      <c r="U8" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="V8" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="W8" s="25">
         <v>4</v>
       </c>
-      <c r="O8" s="7">
+      <c r="X8" s="25">
         <v>7495400</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -900,19 +1219,38 @@
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
-      <c r="J9" s="5">
+      <c r="J9" s="22">
+        <v>45295</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" s="25">
         <v>30</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5">
+      <c r="N9" s="25"/>
+      <c r="O9" s="26">
+        <v>45657</v>
+      </c>
+      <c r="P9" s="25">
+        <v>12345</v>
+      </c>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="25">
         <v>999</v>
       </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-    </row>
-    <row r="10" spans="1:15" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+    </row>
+    <row r="10" spans="1:24" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B10"/>
@@ -923,19 +1261,36 @@
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
-      <c r="J10" s="5">
+      <c r="J10" s="22">
+        <v>45296</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" s="25">
         <v>20</v>
       </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5">
+      <c r="N10" s="25"/>
+      <c r="O10" s="26">
+        <v>45657</v>
+      </c>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="25">
         <v>999</v>
       </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-    </row>
-    <row r="11" spans="1:15" ht="11.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+    </row>
+    <row r="11" spans="1:24" ht="11.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B11"/>
@@ -946,20 +1301,37 @@
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
-      <c r="J11" s="5">
+      <c r="J11" s="22">
+        <v>45297</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" s="25">
         <v>10</v>
       </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5">
+      <c r="N11" s="25"/>
+      <c r="O11" s="26">
+        <v>45657</v>
+      </c>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="25">
         <v>999</v>
       </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-    </row>
-    <row r="12" spans="1:15" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+    </row>
+    <row r="12" spans="1:24" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A12"/>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C12"/>
@@ -969,28 +1341,53 @@
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
-      <c r="J12" s="6">
+      <c r="J12" s="22">
+        <v>45298</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" s="25">
         <v>4</v>
       </c>
-      <c r="K12" s="7">
+      <c r="N12" s="25">
         <v>780000</v>
       </c>
-      <c r="L12" s="6">
+      <c r="O12" s="26">
+        <v>45325</v>
+      </c>
+      <c r="P12" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="25">
         <v>6</v>
       </c>
-      <c r="M12" s="7">
+      <c r="S12" s="25">
         <v>858000</v>
       </c>
-      <c r="N12" s="6">
+      <c r="T12" s="22">
+        <v>45354</v>
+      </c>
+      <c r="U12" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="V12" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="W12" s="25">
         <v>8</v>
       </c>
-      <c r="O12" s="7">
+      <c r="X12" s="25">
         <v>969500</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A13"/>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C13"/>
@@ -1000,27 +1397,52 @@
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
-      <c r="J13" s="6">
+      <c r="J13" s="22">
+        <v>45299</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="M13" s="25">
         <v>6</v>
       </c>
-      <c r="K13" s="7">
+      <c r="N13" s="25">
         <v>5250000</v>
       </c>
-      <c r="L13" s="6">
+      <c r="O13" s="26">
+        <v>45326</v>
+      </c>
+      <c r="P13" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="25">
         <v>9</v>
       </c>
-      <c r="M13" s="7">
+      <c r="S13" s="25">
         <v>5775000</v>
       </c>
-      <c r="N13" s="6">
+      <c r="T13" s="22">
+        <v>45355</v>
+      </c>
+      <c r="U13" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="V13" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="W13" s="25">
         <v>12</v>
       </c>
-      <c r="O13" s="7">
+      <c r="X13" s="25">
         <v>6525900</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="11.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:24" ht="11.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B14"/>
@@ -1031,23 +1453,40 @@
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
-      <c r="J14" s="5">
+      <c r="J14" s="22">
+        <v>45300</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M14" s="25">
         <v>10</v>
       </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5">
+      <c r="N14" s="25"/>
+      <c r="O14" s="26">
+        <v>45657</v>
+      </c>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="25">
         <v>999</v>
       </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-    </row>
-    <row r="15" spans="1:15" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+    </row>
+    <row r="15" spans="1:24" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A15"/>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D15"/>
@@ -1056,31 +1495,58 @@
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15"/>
-      <c r="J15" s="6">
+      <c r="J15" s="22">
+        <v>45301</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="L15" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="M15" s="25">
         <v>4</v>
       </c>
-      <c r="K15" s="7">
+      <c r="N15" s="25">
         <v>780000</v>
       </c>
-      <c r="L15" s="6">
+      <c r="O15" s="26">
+        <v>45327</v>
+      </c>
+      <c r="P15" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="R15" s="25">
         <v>6</v>
       </c>
-      <c r="M15" s="7">
+      <c r="S15" s="25">
         <v>858000</v>
       </c>
-      <c r="N15" s="6">
+      <c r="T15" s="22">
+        <v>45356</v>
+      </c>
+      <c r="U15" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="V15" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="W15" s="25">
         <v>8</v>
       </c>
-      <c r="O15" s="7">
+      <c r="X15" s="25">
         <v>969500</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A16"/>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D16"/>
@@ -1089,27 +1555,54 @@
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16"/>
-      <c r="J16" s="6">
+      <c r="J16" s="22">
+        <v>45302</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="L16" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" s="25">
         <v>6</v>
       </c>
-      <c r="K16" s="7">
+      <c r="N16" s="25">
         <v>5250000</v>
       </c>
-      <c r="L16" s="6">
+      <c r="O16" s="26">
+        <v>45328</v>
+      </c>
+      <c r="P16" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="R16" s="25">
         <v>9</v>
       </c>
-      <c r="M16" s="7">
+      <c r="S16" s="25">
         <v>5775000</v>
       </c>
-      <c r="N16" s="6">
+      <c r="T16" s="22">
+        <v>45357</v>
+      </c>
+      <c r="U16" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="V16" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="W16" s="25">
         <v>12</v>
       </c>
-      <c r="O16" s="7">
+      <c r="X16" s="25">
         <v>6525900</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:24" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B17"/>
@@ -1120,19 +1613,36 @@
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17"/>
-      <c r="J17" s="5">
+      <c r="J17" s="22">
+        <v>45303</v>
+      </c>
+      <c r="K17" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="M17" s="25">
         <v>10</v>
       </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5">
+      <c r="N17" s="25"/>
+      <c r="O17" s="26">
+        <v>45657</v>
+      </c>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="25">
         <v>999</v>
       </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-    </row>
-    <row r="18" spans="1:15" ht="11.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+    </row>
+    <row r="18" spans="1:24" ht="11.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B18"/>
@@ -1143,506 +1653,815 @@
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
-      <c r="J18" s="5">
+      <c r="J18" s="22">
+        <v>45304</v>
+      </c>
+      <c r="K18" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="M18" s="25">
         <v>10</v>
       </c>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5">
+      <c r="N18" s="25"/>
+      <c r="O18" s="26">
+        <v>45657</v>
+      </c>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="25">
         <v>999</v>
       </c>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-    </row>
-    <row r="19" spans="1:15" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+    </row>
+    <row r="19" spans="1:24" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A19"/>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I19"/>
-      <c r="J19" s="6">
+      <c r="J19" s="22">
+        <v>45305</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="M19" s="25">
         <v>2</v>
       </c>
-      <c r="K19" s="7">
+      <c r="N19" s="25">
         <v>180000</v>
       </c>
-      <c r="L19" s="6">
+      <c r="O19" s="26">
+        <v>45329</v>
+      </c>
+      <c r="P19" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q19" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="R19" s="25">
         <v>3</v>
       </c>
-      <c r="M19" s="7">
+      <c r="S19" s="25">
         <v>198000</v>
       </c>
-      <c r="N19" s="6">
+      <c r="T19" s="22">
+        <v>45358</v>
+      </c>
+      <c r="U19" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="V19" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="W19" s="25">
         <v>4</v>
       </c>
-      <c r="O19" s="7">
+      <c r="X19" s="25">
         <v>223700</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A20"/>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="7" t="s">
         <v>30</v>
       </c>
       <c r="I20"/>
-      <c r="J20" s="6">
+      <c r="J20" s="22">
+        <v>45306</v>
+      </c>
+      <c r="K20" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="M20" s="25">
         <v>2</v>
       </c>
-      <c r="K20" s="7">
+      <c r="N20" s="25">
         <v>600000</v>
       </c>
-      <c r="L20" s="6">
+      <c r="O20" s="26">
+        <v>45330</v>
+      </c>
+      <c r="P20" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="25">
         <v>3</v>
       </c>
-      <c r="M20" s="7">
+      <c r="S20" s="25">
         <v>660000</v>
       </c>
-      <c r="N20" s="6">
+      <c r="T20" s="22">
+        <v>45359</v>
+      </c>
+      <c r="U20" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="V20" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="W20" s="25">
         <v>4</v>
       </c>
-      <c r="O20" s="7">
+      <c r="X20" s="25">
         <v>745800</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A21"/>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="7" t="s">
         <v>31</v>
       </c>
       <c r="I21"/>
-      <c r="J21" s="6">
+      <c r="J21" s="22">
+        <v>45307</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="L21" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="M21" s="25">
         <v>2</v>
       </c>
-      <c r="K21" s="7">
+      <c r="N21" s="25">
         <v>1250000</v>
       </c>
-      <c r="L21" s="6">
+      <c r="O21" s="26">
+        <v>45331</v>
+      </c>
+      <c r="P21" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q21" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="R21" s="25">
         <v>3</v>
       </c>
-      <c r="M21" s="7">
+      <c r="S21" s="25">
         <v>1375000</v>
       </c>
-      <c r="N21" s="6">
+      <c r="T21" s="22">
+        <v>45360</v>
+      </c>
+      <c r="U21" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="V21" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="W21" s="25">
         <v>4</v>
       </c>
-      <c r="O21" s="7">
+      <c r="X21" s="25">
         <v>1553800</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A22"/>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="I22"/>
-      <c r="J22" s="6">
+      <c r="J22" s="22">
+        <v>45308</v>
+      </c>
+      <c r="K22" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="L22" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="M22" s="25">
         <v>2</v>
       </c>
-      <c r="K22" s="7">
+      <c r="N22" s="25">
         <v>2050000</v>
       </c>
-      <c r="L22" s="6">
+      <c r="O22" s="26">
+        <v>45332</v>
+      </c>
+      <c r="P22" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="25">
         <v>3</v>
       </c>
-      <c r="M22" s="7">
+      <c r="S22" s="25">
         <v>2255000</v>
       </c>
-      <c r="N22" s="6">
+      <c r="T22" s="22">
+        <v>45361</v>
+      </c>
+      <c r="U22" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="V22" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="W22" s="25">
         <v>4</v>
       </c>
-      <c r="O22" s="7">
+      <c r="X22" s="25">
         <v>2548200</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A23"/>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="7" t="s">
         <v>31</v>
       </c>
       <c r="I23"/>
-      <c r="J23" s="6">
+      <c r="J23" s="22">
+        <v>45309</v>
+      </c>
+      <c r="K23" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="L23" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="M23" s="25">
         <v>2</v>
       </c>
-      <c r="K23" s="7">
+      <c r="N23" s="25">
         <v>1950000</v>
       </c>
-      <c r="L23" s="6">
+      <c r="O23" s="26">
+        <v>45333</v>
+      </c>
+      <c r="P23" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q23" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="R23" s="25">
         <v>3</v>
       </c>
-      <c r="M23" s="7">
+      <c r="S23" s="25">
         <v>2145000</v>
       </c>
-      <c r="N23" s="6">
+      <c r="T23" s="22">
+        <v>45362</v>
+      </c>
+      <c r="U23" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="V23" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="W23" s="25">
         <v>4</v>
       </c>
-      <c r="O23" s="7">
+      <c r="X23" s="25">
         <v>2423900</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="11.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:24" ht="11.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
-      <c r="F24" s="21"/>
+      <c r="F24" s="13"/>
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>
-      <c r="J24" s="5">
+      <c r="J24" s="22">
+        <v>45310</v>
+      </c>
+      <c r="K24" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="L24" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="M24" s="25">
         <v>10</v>
       </c>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5">
+      <c r="N24" s="25"/>
+      <c r="O24" s="26">
+        <v>45657</v>
+      </c>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="25">
         <v>999</v>
       </c>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-    </row>
-    <row r="25" spans="1:15" ht="11.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+    </row>
+    <row r="25" spans="1:24" ht="11.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
-      <c r="F25" s="21"/>
+      <c r="F25" s="13"/>
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
-      <c r="J25" s="5">
+      <c r="J25" s="22">
+        <v>45311</v>
+      </c>
+      <c r="K25" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="L25" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="M25" s="25">
         <v>10</v>
       </c>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5">
+      <c r="N25" s="25"/>
+      <c r="O25" s="26">
+        <v>45657</v>
+      </c>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="25">
         <v>999</v>
       </c>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-    </row>
-    <row r="26" spans="1:15" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+    </row>
+    <row r="26" spans="1:24" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A26"/>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="H26" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I26" s="10" t="s">
+      <c r="I26" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="22">
+        <v>45312</v>
+      </c>
+      <c r="K26" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="L26" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="M26" s="25">
         <v>2</v>
       </c>
-      <c r="K26" s="7">
+      <c r="N26" s="25">
         <v>180000</v>
       </c>
-      <c r="L26" s="6">
+      <c r="O26" s="26">
+        <v>45334</v>
+      </c>
+      <c r="P26" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="25">
         <v>3</v>
       </c>
-      <c r="M26" s="7">
+      <c r="S26" s="25">
         <v>198000</v>
       </c>
-      <c r="N26" s="6">
+      <c r="T26" s="22">
+        <v>45363</v>
+      </c>
+      <c r="U26" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="V26" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="W26" s="25">
         <v>4</v>
       </c>
-      <c r="O26" s="7">
+      <c r="X26" s="25">
         <v>223700</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A27"/>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H27" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="I27" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="22">
+        <v>45313</v>
+      </c>
+      <c r="K27" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="L27" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="M27" s="25">
         <v>2</v>
       </c>
-      <c r="K27" s="7">
+      <c r="N27" s="25">
         <v>600000</v>
       </c>
-      <c r="L27" s="6">
+      <c r="O27" s="26">
+        <v>45335</v>
+      </c>
+      <c r="P27" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="25">
         <v>3</v>
       </c>
-      <c r="M27" s="7">
+      <c r="S27" s="25">
         <v>660000</v>
       </c>
-      <c r="N27" s="6">
+      <c r="T27" s="22">
+        <v>45364</v>
+      </c>
+      <c r="U27" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="V27" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="W27" s="25">
         <v>4</v>
       </c>
-      <c r="O27" s="7">
+      <c r="X27" s="25">
         <v>745800</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A28"/>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H28" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="I28" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="22">
+        <v>45314</v>
+      </c>
+      <c r="K28" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="L28" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="M28" s="25">
         <v>2</v>
       </c>
-      <c r="K28" s="7">
+      <c r="N28" s="25">
         <v>1250000</v>
       </c>
-      <c r="L28" s="6">
+      <c r="O28" s="26">
+        <v>45336</v>
+      </c>
+      <c r="P28" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="25">
         <v>3</v>
       </c>
-      <c r="M28" s="7">
+      <c r="S28" s="25">
         <v>1375000</v>
       </c>
-      <c r="N28" s="6">
+      <c r="T28" s="22">
+        <v>45365</v>
+      </c>
+      <c r="U28" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="V28" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="W28" s="25">
         <v>4</v>
       </c>
-      <c r="O28" s="7">
+      <c r="X28" s="25">
         <v>1553800</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A29"/>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="H29" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I29" s="10" t="s">
+      <c r="I29" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="22">
+        <v>45315</v>
+      </c>
+      <c r="K29" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="L29" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="M29" s="25">
         <v>2</v>
       </c>
-      <c r="K29" s="7">
+      <c r="N29" s="25">
         <v>2050000</v>
       </c>
-      <c r="L29" s="6">
+      <c r="O29" s="26">
+        <v>45337</v>
+      </c>
+      <c r="P29" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="25">
         <v>3</v>
       </c>
-      <c r="M29" s="7">
+      <c r="S29" s="25">
         <v>2255000</v>
       </c>
-      <c r="N29" s="6">
+      <c r="T29" s="22">
+        <v>45366</v>
+      </c>
+      <c r="U29" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="V29" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="W29" s="25">
         <v>4</v>
       </c>
-      <c r="O29" s="7">
+      <c r="X29" s="25">
         <v>2548200</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A30"/>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="20" t="s">
+      <c r="F30" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="H30" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I30" s="10" t="s">
+      <c r="I30" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="22">
+        <v>45316</v>
+      </c>
+      <c r="K30" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="L30" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="M30" s="25">
         <v>2</v>
       </c>
-      <c r="K30" s="7">
+      <c r="N30" s="25">
         <v>1950000</v>
       </c>
-      <c r="L30" s="6">
+      <c r="O30" s="26">
+        <v>45338</v>
+      </c>
+      <c r="P30" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="25">
         <v>3</v>
       </c>
-      <c r="M30" s="7">
+      <c r="S30" s="25">
         <v>2145000</v>
       </c>
-      <c r="N30" s="6">
+      <c r="T30" s="22">
+        <v>45367</v>
+      </c>
+      <c r="U30" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="V30" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="W30" s="25">
         <v>4</v>
       </c>
-      <c r="O30" s="7">
+      <c r="X30" s="25">
         <v>2423900</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="O4:S4"/>
+    <mergeCell ref="T4:X4"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -1651,8 +2470,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
     <mergeCell ref="F4:F5"/>
   </mergeCells>
   <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>

--- a/Макеты/03/ВА_ИмпортExcel+Mercury.xlsx
+++ b/Макеты/03/ВА_ИмпортExcel+Mercury.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VA-Tests\VA-Tests-UH32-Budget\Макеты\03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7DA029-BCE3-4722-8A9C-6C8D082A374A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0002EA3D-FF8F-4901-9309-6EFA6F14321E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="32760" windowWidth="11400" windowHeight="5895" tabRatio="180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -248,9 +248,6 @@
     <t>Январь15</t>
   </si>
   <si>
-    <t>Нет</t>
-  </si>
-  <si>
     <t>Март8</t>
   </si>
   <si>
@@ -315,6 +312,9 @@
   </si>
   <si>
     <t>Март16</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -360,7 +360,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,6 +383,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFAD9"/>
         <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="24"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -454,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -493,6 +499,42 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -505,40 +547,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -930,7 +945,7 @@
   <dimension ref="A2:X30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+      <selection activeCell="W6" sqref="W6:X30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="3" x14ac:dyDescent="0.2"/>
@@ -954,70 +969,70 @@
     </row>
     <row r="3" spans="1:24" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18" t="s">
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18" t="s">
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
     </row>
     <row r="5" spans="1:24" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="19" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="15" t="s">
         <v>46</v>
       </c>
       <c r="M5" s="3" t="s">
@@ -1026,13 +1041,13 @@
       <c r="N5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="21" t="s">
+      <c r="O5" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="P5" s="19" t="s">
+      <c r="P5" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="Q5" s="20" t="s">
+      <c r="Q5" s="15" t="s">
         <v>46</v>
       </c>
       <c r="R5" s="3" t="s">
@@ -1041,13 +1056,13 @@
       <c r="S5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T5" s="19" t="s">
+      <c r="T5" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="U5" s="19" t="s">
+      <c r="U5" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="V5" s="20" t="s">
+      <c r="V5" s="15" t="s">
         <v>46</v>
       </c>
       <c r="W5" s="3" t="s">
@@ -1069,46 +1084,46 @@
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
-      <c r="J6" s="22">
+      <c r="J6" s="17">
         <v>45292</v>
       </c>
-      <c r="K6" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" s="24" t="s">
+      <c r="K6" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="M6" s="25">
+      <c r="M6" s="30">
         <v>0</v>
       </c>
-      <c r="N6" s="25"/>
-      <c r="O6" s="26">
+      <c r="N6" s="30"/>
+      <c r="O6" s="21">
         <v>45323</v>
       </c>
-      <c r="P6" s="23" t="s">
+      <c r="P6" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="25">
+      <c r="Q6" s="19"/>
+      <c r="R6" s="31">
         <v>4</v>
       </c>
-      <c r="S6" s="25">
-        <v>600000</v>
-      </c>
-      <c r="T6" s="22">
+      <c r="S6" s="32">
+        <v>720000</v>
+      </c>
+      <c r="T6" s="17">
         <v>45352</v>
       </c>
-      <c r="U6" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="V6" s="28" t="s">
+      <c r="U6" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="V6" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="W6" s="25">
+      <c r="W6" s="31">
         <v>5</v>
       </c>
-      <c r="X6" s="25">
-        <v>700000</v>
+      <c r="X6" s="32">
+        <v>560000</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1123,35 +1138,35 @@
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
-      <c r="J7" s="22">
+      <c r="J7" s="17">
         <v>45293</v>
       </c>
-      <c r="K7" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" s="24" t="s">
+      <c r="K7" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="30">
         <v>2</v>
       </c>
-      <c r="N7" s="25"/>
-      <c r="O7" s="26">
+      <c r="N7" s="30"/>
+      <c r="O7" s="21">
         <v>45657</v>
       </c>
-      <c r="P7" s="23" t="s">
+      <c r="P7" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="25">
+      <c r="Q7" s="24"/>
+      <c r="R7" s="30">
         <v>999</v>
       </c>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="25"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
     </row>
     <row r="8" spans="1:24" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
@@ -1165,46 +1180,46 @@
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
-      <c r="J8" s="22">
+      <c r="J8" s="17">
         <v>45294</v>
       </c>
-      <c r="K8" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="L8" s="24" t="s">
+      <c r="K8" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="M8" s="25">
+      <c r="M8" s="31">
         <v>2</v>
       </c>
-      <c r="N8" s="25"/>
-      <c r="O8" s="26">
+      <c r="N8" s="30"/>
+      <c r="O8" s="21">
         <v>45324</v>
       </c>
-      <c r="P8" s="25">
+      <c r="P8" s="20">
         <v>12345</v>
       </c>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="25">
+      <c r="Q8" s="19"/>
+      <c r="R8" s="31">
         <v>3</v>
       </c>
-      <c r="S8" s="25">
-        <v>6633000</v>
-      </c>
-      <c r="T8" s="22">
+      <c r="S8" s="32">
+        <v>7959600</v>
+      </c>
+      <c r="T8" s="17">
         <v>45353</v>
       </c>
-      <c r="U8" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="V8" s="28" t="s">
+      <c r="U8" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="V8" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="W8" s="25">
+      <c r="W8" s="31">
         <v>4</v>
       </c>
-      <c r="X8" s="25">
-        <v>7495400</v>
+      <c r="X8" s="32">
+        <v>5996320</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1219,35 +1234,35 @@
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
-      <c r="J9" s="22">
+      <c r="J9" s="17">
         <v>45295</v>
       </c>
-      <c r="K9" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9" s="24" t="s">
+      <c r="K9" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="M9" s="25">
+      <c r="M9" s="30">
         <v>30</v>
       </c>
-      <c r="N9" s="25"/>
-      <c r="O9" s="26">
+      <c r="N9" s="30"/>
+      <c r="O9" s="21">
         <v>45657</v>
       </c>
-      <c r="P9" s="25">
+      <c r="P9" s="20">
         <v>12345</v>
       </c>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="25">
+      <c r="Q9" s="24"/>
+      <c r="R9" s="30">
         <v>999</v>
       </c>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
     </row>
     <row r="10" spans="1:24" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -1261,33 +1276,33 @@
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
-      <c r="J10" s="22">
+      <c r="J10" s="17">
         <v>45296</v>
       </c>
-      <c r="K10" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="L10" s="24" t="s">
+      <c r="K10" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="L10" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="M10" s="25">
+      <c r="M10" s="30">
         <v>20</v>
       </c>
-      <c r="N10" s="25"/>
-      <c r="O10" s="26">
+      <c r="N10" s="30"/>
+      <c r="O10" s="21">
         <v>45657</v>
       </c>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="25">
+      <c r="P10" s="20"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="30">
         <v>999</v>
       </c>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="25"/>
-      <c r="X10" s="25"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
     </row>
     <row r="11" spans="1:24" ht="11.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
@@ -1301,33 +1316,33 @@
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
-      <c r="J11" s="22">
+      <c r="J11" s="17">
         <v>45297</v>
       </c>
-      <c r="K11" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="L11" s="24" t="s">
+      <c r="K11" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="M11" s="25">
+      <c r="M11" s="30">
         <v>10</v>
       </c>
-      <c r="N11" s="25"/>
-      <c r="O11" s="26">
+      <c r="N11" s="30"/>
+      <c r="O11" s="21">
         <v>45657</v>
       </c>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="25">
+      <c r="P11" s="20"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="30">
         <v>999</v>
       </c>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="25"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
     </row>
     <row r="12" spans="1:24" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A12"/>
@@ -1341,48 +1356,48 @@
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
-      <c r="J12" s="22">
+      <c r="J12" s="17">
         <v>45298</v>
       </c>
-      <c r="K12" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="L12" s="24" t="s">
+      <c r="K12" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="M12" s="25">
+      <c r="M12" s="31">
         <v>4</v>
       </c>
-      <c r="N12" s="25">
+      <c r="N12" s="32">
         <v>780000</v>
       </c>
-      <c r="O12" s="26">
+      <c r="O12" s="21">
         <v>45325</v>
       </c>
-      <c r="P12" s="23" t="s">
+      <c r="P12" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="25">
+      <c r="Q12" s="24"/>
+      <c r="R12" s="31">
         <v>6</v>
       </c>
-      <c r="S12" s="25">
-        <v>858000</v>
-      </c>
-      <c r="T12" s="22">
+      <c r="S12" s="32">
+        <v>1029600</v>
+      </c>
+      <c r="T12" s="17">
         <v>45354</v>
       </c>
-      <c r="U12" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="V12" s="28" t="s">
+      <c r="U12" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="V12" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="W12" s="25">
+      <c r="W12" s="31">
         <v>8</v>
       </c>
-      <c r="X12" s="25">
-        <v>969500</v>
+      <c r="X12" s="32">
+        <v>775600</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -1397,48 +1412,48 @@
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
-      <c r="J13" s="22">
+      <c r="J13" s="17">
         <v>45299</v>
       </c>
-      <c r="K13" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="L13" s="24" t="s">
+      <c r="K13" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="M13" s="25">
+      <c r="M13" s="31">
         <v>6</v>
       </c>
-      <c r="N13" s="25">
+      <c r="N13" s="32">
         <v>5250000</v>
       </c>
-      <c r="O13" s="26">
+      <c r="O13" s="21">
         <v>45326</v>
       </c>
-      <c r="P13" s="23" t="s">
+      <c r="P13" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="25">
+      <c r="Q13" s="24"/>
+      <c r="R13" s="31">
         <v>9</v>
       </c>
-      <c r="S13" s="25">
-        <v>5775000</v>
-      </c>
-      <c r="T13" s="22">
+      <c r="S13" s="32">
+        <v>6930000</v>
+      </c>
+      <c r="T13" s="17">
         <v>45355</v>
       </c>
-      <c r="U13" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="V13" s="28" t="s">
+      <c r="U13" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="V13" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="W13" s="25">
+      <c r="W13" s="31">
         <v>12</v>
       </c>
-      <c r="X13" s="25">
-        <v>6525900</v>
+      <c r="X13" s="32">
+        <v>5220720</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="11.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
@@ -1453,33 +1468,33 @@
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
-      <c r="J14" s="22">
+      <c r="J14" s="17">
         <v>45300</v>
       </c>
-      <c r="K14" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="L14" s="24" t="s">
+      <c r="K14" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="M14" s="25">
+      <c r="M14" s="30">
         <v>10</v>
       </c>
-      <c r="N14" s="25"/>
-      <c r="O14" s="26">
+      <c r="N14" s="30"/>
+      <c r="O14" s="21">
         <v>45657</v>
       </c>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="25">
+      <c r="P14" s="20"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="30">
         <v>999</v>
       </c>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
     </row>
     <row r="15" spans="1:24" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A15"/>
@@ -1495,50 +1510,50 @@
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15"/>
-      <c r="J15" s="22">
+      <c r="J15" s="17">
         <v>45301</v>
       </c>
-      <c r="K15" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="L15" s="24" t="s">
+      <c r="K15" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="L15" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="M15" s="25">
+      <c r="M15" s="31">
         <v>4</v>
       </c>
-      <c r="N15" s="25">
+      <c r="N15" s="32">
         <v>780000</v>
       </c>
-      <c r="O15" s="26">
+      <c r="O15" s="21">
         <v>45327</v>
       </c>
-      <c r="P15" s="25">
+      <c r="P15" s="20">
         <v>0</v>
       </c>
-      <c r="Q15" s="24" t="s">
+      <c r="Q15" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="R15" s="25">
+      <c r="R15" s="31">
         <v>6</v>
       </c>
-      <c r="S15" s="25">
-        <v>858000</v>
-      </c>
-      <c r="T15" s="22">
+      <c r="S15" s="32">
+        <v>1029600</v>
+      </c>
+      <c r="T15" s="17">
         <v>45356</v>
       </c>
-      <c r="U15" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="V15" s="28" t="s">
+      <c r="U15" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="V15" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="W15" s="25">
+      <c r="W15" s="31">
         <v>8</v>
       </c>
-      <c r="X15" s="25">
-        <v>969500</v>
+      <c r="X15" s="32">
+        <v>775600</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -1555,50 +1570,50 @@
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16"/>
-      <c r="J16" s="22">
+      <c r="J16" s="17">
         <v>45302</v>
       </c>
-      <c r="K16" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="L16" s="24" t="s">
+      <c r="K16" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="M16" s="25">
+      <c r="M16" s="31">
         <v>6</v>
       </c>
-      <c r="N16" s="25">
+      <c r="N16" s="32">
         <v>5250000</v>
       </c>
-      <c r="O16" s="26">
+      <c r="O16" s="21">
         <v>45328</v>
       </c>
-      <c r="P16" s="25">
+      <c r="P16" s="20">
         <v>0</v>
       </c>
-      <c r="Q16" s="24" t="s">
+      <c r="Q16" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="R16" s="25">
+      <c r="R16" s="31">
         <v>9</v>
       </c>
-      <c r="S16" s="25">
-        <v>5775000</v>
-      </c>
-      <c r="T16" s="22">
+      <c r="S16" s="32">
+        <v>6930000</v>
+      </c>
+      <c r="T16" s="17">
         <v>45357</v>
       </c>
-      <c r="U16" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="V16" s="28" t="s">
+      <c r="U16" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="V16" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="W16" s="25">
+      <c r="W16" s="31">
         <v>12</v>
       </c>
-      <c r="X16" s="25">
-        <v>6525900</v>
+      <c r="X16" s="32">
+        <v>5220720</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1613,33 +1628,33 @@
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17"/>
-      <c r="J17" s="22">
+      <c r="J17" s="17">
         <v>45303</v>
       </c>
-      <c r="K17" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="L17" s="24" t="s">
+      <c r="K17" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="L17" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="M17" s="25">
+      <c r="M17" s="30">
         <v>10</v>
       </c>
-      <c r="N17" s="25"/>
-      <c r="O17" s="26">
+      <c r="N17" s="30"/>
+      <c r="O17" s="21">
         <v>45657</v>
       </c>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="25">
+      <c r="P17" s="20"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="30">
         <v>999</v>
       </c>
-      <c r="S17" s="25"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="25"/>
-      <c r="X17" s="25"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
     </row>
     <row r="18" spans="1:24" ht="11.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
@@ -1653,33 +1668,33 @@
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
-      <c r="J18" s="22">
+      <c r="J18" s="17">
         <v>45304</v>
       </c>
-      <c r="K18" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="L18" s="24" t="s">
+      <c r="K18" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="L18" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="M18" s="25">
+      <c r="M18" s="30">
         <v>10</v>
       </c>
-      <c r="N18" s="25"/>
-      <c r="O18" s="26">
+      <c r="N18" s="30"/>
+      <c r="O18" s="21">
         <v>45657</v>
       </c>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="25">
+      <c r="P18" s="20"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="30">
         <v>999</v>
       </c>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="25"/>
-      <c r="X18" s="25"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
     </row>
     <row r="19" spans="1:24" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A19"/>
@@ -1705,50 +1720,50 @@
         <v>30</v>
       </c>
       <c r="I19"/>
-      <c r="J19" s="22">
+      <c r="J19" s="17">
         <v>45305</v>
       </c>
-      <c r="K19" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="L19" s="24" t="s">
+      <c r="K19" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="L19" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="M19" s="25">
+      <c r="M19" s="31">
         <v>2</v>
       </c>
-      <c r="N19" s="25">
+      <c r="N19" s="32">
         <v>180000</v>
       </c>
-      <c r="O19" s="26">
+      <c r="O19" s="21">
         <v>45329</v>
       </c>
-      <c r="P19" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q19" s="24" t="s">
+      <c r="P19" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q19" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="R19" s="25">
+      <c r="R19" s="31">
+        <v>4</v>
+      </c>
+      <c r="S19" s="32">
+        <v>237600</v>
+      </c>
+      <c r="T19" s="17">
+        <v>45358</v>
+      </c>
+      <c r="U19" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="V19" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="W19" s="31">
         <v>3</v>
       </c>
-      <c r="S19" s="25">
-        <v>198000</v>
-      </c>
-      <c r="T19" s="22">
-        <v>45358</v>
-      </c>
-      <c r="U19" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="V19" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="W19" s="25">
-        <v>4</v>
-      </c>
-      <c r="X19" s="25">
-        <v>223700</v>
+      <c r="X19" s="32">
+        <v>178960</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -1775,48 +1790,48 @@
         <v>30</v>
       </c>
       <c r="I20"/>
-      <c r="J20" s="22">
+      <c r="J20" s="17">
         <v>45306</v>
       </c>
-      <c r="K20" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="L20" s="24" t="s">
+      <c r="K20" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="L20" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="M20" s="25">
+      <c r="M20" s="31">
         <v>2</v>
       </c>
-      <c r="N20" s="25">
+      <c r="N20" s="32">
         <v>600000</v>
       </c>
-      <c r="O20" s="26">
+      <c r="O20" s="21">
         <v>45330</v>
       </c>
-      <c r="P20" s="23" t="s">
+      <c r="P20" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="31">
+        <v>4</v>
+      </c>
+      <c r="S20" s="32">
+        <v>792000</v>
+      </c>
+      <c r="T20" s="17">
+        <v>45359</v>
+      </c>
+      <c r="U20" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="V20" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="25">
+      <c r="W20" s="31">
         <v>3</v>
       </c>
-      <c r="S20" s="25">
-        <v>660000</v>
-      </c>
-      <c r="T20" s="22">
-        <v>45359</v>
-      </c>
-      <c r="U20" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="V20" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="W20" s="25">
-        <v>4</v>
-      </c>
-      <c r="X20" s="25">
-        <v>745800</v>
+      <c r="X20" s="32">
+        <v>596640</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -1843,50 +1858,50 @@
         <v>31</v>
       </c>
       <c r="I21"/>
-      <c r="J21" s="22">
+      <c r="J21" s="17">
         <v>45307</v>
       </c>
-      <c r="K21" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="L21" s="24" t="s">
+      <c r="K21" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="L21" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="M21" s="31">
+        <v>2</v>
+      </c>
+      <c r="N21" s="32">
+        <v>1250000</v>
+      </c>
+      <c r="O21" s="21">
+        <v>45331</v>
+      </c>
+      <c r="P21" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q21" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="M21" s="25">
-        <v>2</v>
-      </c>
-      <c r="N21" s="25">
-        <v>1250000</v>
-      </c>
-      <c r="O21" s="26">
-        <v>45331</v>
-      </c>
-      <c r="P21" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q21" s="24" t="s">
+      <c r="R21" s="31">
+        <v>4</v>
+      </c>
+      <c r="S21" s="32">
+        <v>1650000</v>
+      </c>
+      <c r="T21" s="17">
+        <v>45360</v>
+      </c>
+      <c r="U21" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="V21" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="R21" s="25">
+      <c r="W21" s="31">
         <v>3</v>
       </c>
-      <c r="S21" s="25">
-        <v>1375000</v>
-      </c>
-      <c r="T21" s="22">
-        <v>45360</v>
-      </c>
-      <c r="U21" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="V21" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="W21" s="25">
-        <v>4</v>
-      </c>
-      <c r="X21" s="25">
-        <v>1553800</v>
+      <c r="X21" s="32">
+        <v>1243040</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -1913,48 +1928,48 @@
         <v>31</v>
       </c>
       <c r="I22"/>
-      <c r="J22" s="22">
+      <c r="J22" s="17">
         <v>45308</v>
       </c>
-      <c r="K22" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="L22" s="24" t="s">
+      <c r="K22" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="M22" s="31">
+        <v>2</v>
+      </c>
+      <c r="N22" s="32">
+        <v>2050000</v>
+      </c>
+      <c r="O22" s="21">
+        <v>45332</v>
+      </c>
+      <c r="P22" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="31">
+        <v>4</v>
+      </c>
+      <c r="S22" s="32">
+        <v>2706000</v>
+      </c>
+      <c r="T22" s="17">
+        <v>45361</v>
+      </c>
+      <c r="U22" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="V22" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="M22" s="25">
-        <v>2</v>
-      </c>
-      <c r="N22" s="25">
-        <v>2050000</v>
-      </c>
-      <c r="O22" s="26">
-        <v>45332</v>
-      </c>
-      <c r="P22" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="25">
+      <c r="W22" s="31">
         <v>3</v>
       </c>
-      <c r="S22" s="25">
-        <v>2255000</v>
-      </c>
-      <c r="T22" s="22">
-        <v>45361</v>
-      </c>
-      <c r="U22" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="V22" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="W22" s="25">
-        <v>4</v>
-      </c>
-      <c r="X22" s="25">
-        <v>2548200</v>
+      <c r="X22" s="32">
+        <v>2038560</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -1981,50 +1996,50 @@
         <v>31</v>
       </c>
       <c r="I23"/>
-      <c r="J23" s="22">
+      <c r="J23" s="17">
         <v>45309</v>
       </c>
-      <c r="K23" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="L23" s="24" t="s">
+      <c r="K23" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="L23" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="M23" s="31">
+        <v>2</v>
+      </c>
+      <c r="N23" s="32">
+        <v>1950000</v>
+      </c>
+      <c r="O23" s="21">
+        <v>45333</v>
+      </c>
+      <c r="P23" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q23" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="M23" s="25">
-        <v>2</v>
-      </c>
-      <c r="N23" s="25">
-        <v>1950000</v>
-      </c>
-      <c r="O23" s="26">
-        <v>45333</v>
-      </c>
-      <c r="P23" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q23" s="24" t="s">
+      <c r="R23" s="31">
+        <v>4</v>
+      </c>
+      <c r="S23" s="32">
+        <v>2574000</v>
+      </c>
+      <c r="T23" s="17">
+        <v>45362</v>
+      </c>
+      <c r="U23" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="V23" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="R23" s="25">
+      <c r="W23" s="31">
         <v>3</v>
       </c>
-      <c r="S23" s="25">
-        <v>2145000</v>
-      </c>
-      <c r="T23" s="22">
-        <v>45362</v>
-      </c>
-      <c r="U23" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="V23" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="W23" s="25">
-        <v>4</v>
-      </c>
-      <c r="X23" s="25">
-        <v>2423900</v>
+      <c r="X23" s="32">
+        <v>1939120</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="11.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
@@ -2039,33 +2054,33 @@
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>
-      <c r="J24" s="22">
+      <c r="J24" s="17">
         <v>45310</v>
       </c>
-      <c r="K24" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="L24" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="M24" s="25">
-        <v>10</v>
-      </c>
-      <c r="N24" s="25"/>
-      <c r="O24" s="26">
+      <c r="K24" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="L24" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="M24" s="30">
+        <v>20</v>
+      </c>
+      <c r="N24" s="30"/>
+      <c r="O24" s="21">
         <v>45657</v>
       </c>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="25">
+      <c r="P24" s="20"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="30">
         <v>999</v>
       </c>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="25"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
     </row>
     <row r="25" spans="1:24" ht="11.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
@@ -2079,33 +2094,33 @@
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
-      <c r="J25" s="22">
+      <c r="J25" s="17">
         <v>45311</v>
       </c>
-      <c r="K25" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="L25" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="M25" s="25">
-        <v>10</v>
-      </c>
-      <c r="N25" s="25"/>
-      <c r="O25" s="26">
+      <c r="K25" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="L25" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="M25" s="30">
+        <v>20</v>
+      </c>
+      <c r="N25" s="30"/>
+      <c r="O25" s="21">
         <v>45657</v>
       </c>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="25">
+      <c r="P25" s="20"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="30">
         <v>999</v>
       </c>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="25"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="25"/>
-      <c r="X25" s="25"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="30"/>
     </row>
     <row r="26" spans="1:24" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A26"/>
@@ -2133,48 +2148,48 @@
       <c r="I26" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J26" s="22">
+      <c r="J26" s="17">
         <v>45312</v>
       </c>
-      <c r="K26" s="23" t="s">
+      <c r="K26" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="L26" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="M26" s="31">
+        <v>2</v>
+      </c>
+      <c r="N26" s="32">
+        <v>180000</v>
+      </c>
+      <c r="O26" s="21">
+        <v>45334</v>
+      </c>
+      <c r="P26" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="31">
+        <v>4</v>
+      </c>
+      <c r="S26" s="32">
+        <v>237600</v>
+      </c>
+      <c r="T26" s="17">
+        <v>45363</v>
+      </c>
+      <c r="U26" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="L26" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="M26" s="25">
-        <v>2</v>
-      </c>
-      <c r="N26" s="25">
-        <v>180000</v>
-      </c>
-      <c r="O26" s="26">
-        <v>45334</v>
-      </c>
-      <c r="P26" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="25">
+      <c r="V26" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="W26" s="31">
         <v>3</v>
       </c>
-      <c r="S26" s="25">
-        <v>198000</v>
-      </c>
-      <c r="T26" s="22">
-        <v>45363</v>
-      </c>
-      <c r="U26" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="V26" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="W26" s="25">
-        <v>4</v>
-      </c>
-      <c r="X26" s="25">
-        <v>223700</v>
+      <c r="X26" s="32">
+        <v>178960</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -2203,48 +2218,48 @@
       <c r="I27" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J27" s="17">
         <v>45313</v>
       </c>
-      <c r="K27" s="23" t="s">
+      <c r="K27" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="L27" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="M27" s="31">
+        <v>2</v>
+      </c>
+      <c r="N27" s="32">
+        <v>600000</v>
+      </c>
+      <c r="O27" s="21">
+        <v>45335</v>
+      </c>
+      <c r="P27" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="31">
+        <v>4</v>
+      </c>
+      <c r="S27" s="32">
+        <v>792000</v>
+      </c>
+      <c r="T27" s="17">
+        <v>45364</v>
+      </c>
+      <c r="U27" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="L27" s="24" t="s">
+      <c r="V27" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="M27" s="25">
-        <v>2</v>
-      </c>
-      <c r="N27" s="25">
-        <v>600000</v>
-      </c>
-      <c r="O27" s="26">
-        <v>45335</v>
-      </c>
-      <c r="P27" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="25">
+      <c r="W27" s="31">
         <v>3</v>
       </c>
-      <c r="S27" s="25">
-        <v>660000</v>
-      </c>
-      <c r="T27" s="22">
-        <v>45364</v>
-      </c>
-      <c r="U27" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="V27" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="W27" s="25">
-        <v>4</v>
-      </c>
-      <c r="X27" s="25">
-        <v>745800</v>
+      <c r="X27" s="32">
+        <v>596640</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -2273,48 +2288,48 @@
       <c r="I28" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J28" s="22">
+      <c r="J28" s="17">
         <v>45314</v>
       </c>
-      <c r="K28" s="23" t="s">
+      <c r="K28" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="L28" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="M28" s="31">
+        <v>2</v>
+      </c>
+      <c r="N28" s="32">
+        <v>1250000</v>
+      </c>
+      <c r="O28" s="21">
+        <v>45336</v>
+      </c>
+      <c r="P28" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="31">
+        <v>4</v>
+      </c>
+      <c r="S28" s="32">
+        <v>1650000</v>
+      </c>
+      <c r="T28" s="17">
+        <v>45365</v>
+      </c>
+      <c r="U28" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="L28" s="24" t="s">
+      <c r="V28" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="M28" s="25">
-        <v>2</v>
-      </c>
-      <c r="N28" s="25">
-        <v>1250000</v>
-      </c>
-      <c r="O28" s="26">
-        <v>45336</v>
-      </c>
-      <c r="P28" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="25">
+      <c r="W28" s="31">
         <v>3</v>
       </c>
-      <c r="S28" s="25">
-        <v>1375000</v>
-      </c>
-      <c r="T28" s="22">
-        <v>45365</v>
-      </c>
-      <c r="U28" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="V28" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="W28" s="25">
-        <v>4</v>
-      </c>
-      <c r="X28" s="25">
-        <v>1553800</v>
+      <c r="X28" s="32">
+        <v>1243040</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -2343,48 +2358,48 @@
       <c r="I29" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J29" s="17">
         <v>45315</v>
       </c>
-      <c r="K29" s="23" t="s">
+      <c r="K29" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="M29" s="31">
+        <v>2</v>
+      </c>
+      <c r="N29" s="32">
+        <v>2050000</v>
+      </c>
+      <c r="O29" s="21">
+        <v>45337</v>
+      </c>
+      <c r="P29" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="31">
+        <v>4</v>
+      </c>
+      <c r="S29" s="32">
+        <v>2706000</v>
+      </c>
+      <c r="T29" s="17">
+        <v>45366</v>
+      </c>
+      <c r="U29" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="L29" s="24" t="s">
+      <c r="V29" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="M29" s="25">
-        <v>2</v>
-      </c>
-      <c r="N29" s="25">
-        <v>2050000</v>
-      </c>
-      <c r="O29" s="26">
-        <v>45337</v>
-      </c>
-      <c r="P29" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="25">
+      <c r="W29" s="31">
         <v>3</v>
       </c>
-      <c r="S29" s="25">
-        <v>2255000</v>
-      </c>
-      <c r="T29" s="22">
-        <v>45366</v>
-      </c>
-      <c r="U29" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="V29" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="W29" s="25">
-        <v>4</v>
-      </c>
-      <c r="X29" s="25">
-        <v>2548200</v>
+      <c r="X29" s="32">
+        <v>2038560</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="10.7" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -2413,48 +2428,48 @@
       <c r="I30" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J30" s="22">
+      <c r="J30" s="17">
         <v>45316</v>
       </c>
-      <c r="K30" s="23" t="s">
+      <c r="K30" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="L30" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="M30" s="31">
+        <v>2</v>
+      </c>
+      <c r="N30" s="32">
+        <v>1950000</v>
+      </c>
+      <c r="O30" s="21">
+        <v>45338</v>
+      </c>
+      <c r="P30" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="31">
+        <v>4</v>
+      </c>
+      <c r="S30" s="32">
+        <v>2574000</v>
+      </c>
+      <c r="T30" s="17">
+        <v>45367</v>
+      </c>
+      <c r="U30" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="L30" s="24" t="s">
+      <c r="V30" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="M30" s="25">
-        <v>2</v>
-      </c>
-      <c r="N30" s="25">
-        <v>1950000</v>
-      </c>
-      <c r="O30" s="26">
-        <v>45338</v>
-      </c>
-      <c r="P30" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="25">
+      <c r="W30" s="31">
         <v>3</v>
       </c>
-      <c r="S30" s="25">
-        <v>2145000</v>
-      </c>
-      <c r="T30" s="22">
-        <v>45367</v>
-      </c>
-      <c r="U30" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="V30" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="W30" s="25">
-        <v>4</v>
-      </c>
-      <c r="X30" s="25">
-        <v>2423900</v>
+      <c r="X30" s="32">
+        <v>1939120</v>
       </c>
     </row>
   </sheetData>
